--- a/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,136 +22,208 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>009341</t>
+  </si>
+  <si>
+    <t>110029</t>
+  </si>
+  <si>
+    <t>110013</t>
+  </si>
+  <si>
+    <t>110001</t>
+  </si>
+  <si>
+    <t>001018</t>
+  </si>
+  <si>
+    <t>006533</t>
+  </si>
+  <si>
     <t>004683</t>
   </si>
   <si>
-    <t>110013</t>
-  </si>
-  <si>
-    <t>009341</t>
-  </si>
-  <si>
-    <t>006533</t>
+    <t>006881</t>
+  </si>
+  <si>
+    <t>008884</t>
   </si>
   <si>
     <t>450007</t>
   </si>
   <si>
-    <t>001018</t>
-  </si>
-  <si>
-    <t>006881</t>
-  </si>
-  <si>
-    <t>110001</t>
-  </si>
-  <si>
-    <t>110029</t>
-  </si>
-  <si>
-    <t>008884</t>
-  </si>
-  <si>
     <t>008885</t>
   </si>
   <si>
+    <t>易方达均衡成长股票</t>
+  </si>
+  <si>
+    <t>易方达科讯混合</t>
+  </si>
+  <si>
+    <t>易方达科翔混合</t>
+  </si>
+  <si>
+    <t>易方达平稳增长混合</t>
+  </si>
+  <si>
+    <t>易方达新经济灵活配置混合</t>
+  </si>
+  <si>
+    <t>易方达科融混合</t>
+  </si>
+  <si>
     <t>建信高端医疗股票</t>
   </si>
   <si>
-    <t>易方达科翔混合</t>
-  </si>
-  <si>
-    <t>易方达均衡成长股票</t>
-  </si>
-  <si>
-    <t>易方达科融混合</t>
+    <t>华宝大健康混合</t>
+  </si>
+  <si>
+    <t>博远博锐混合A</t>
   </si>
   <si>
     <t>国富成长动力混合</t>
   </si>
   <si>
-    <t>易方达新经济灵活配置混合</t>
-  </si>
-  <si>
-    <t>华宝大健康混合</t>
-  </si>
-  <si>
-    <t>易方达平稳增长混合</t>
-  </si>
-  <si>
-    <t>易方达科讯混合</t>
-  </si>
-  <si>
-    <t>博远博锐混合A</t>
-  </si>
-  <si>
     <t>博远博锐混合C</t>
   </si>
   <si>
+    <t>103.57</t>
+  </si>
+  <si>
+    <t>41.16</t>
+  </si>
+  <si>
+    <t>51.72</t>
+  </si>
+  <si>
+    <t>29.69</t>
+  </si>
+  <si>
+    <t>21.67</t>
+  </si>
+  <si>
+    <t>4.72</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>87.83</t>
+  </si>
+  <si>
+    <t>82.88</t>
+  </si>
+  <si>
+    <t>86.14</t>
+  </si>
+  <si>
+    <t>60.25</t>
+  </si>
+  <si>
+    <t>88.27</t>
+  </si>
+  <si>
+    <t>87.26</t>
+  </si>
+  <si>
     <t>86.12</t>
   </si>
   <si>
-    <t>86.14</t>
-  </si>
-  <si>
-    <t>87.83</t>
-  </si>
-  <si>
-    <t>87.26</t>
+    <t>69.74</t>
+  </si>
+  <si>
+    <t>72.86</t>
   </si>
   <si>
     <t>85.68</t>
   </si>
   <si>
-    <t>88.27</t>
-  </si>
-  <si>
-    <t>69.74</t>
-  </si>
-  <si>
-    <t>60.25</t>
-  </si>
-  <si>
-    <t>82.88</t>
-  </si>
-  <si>
-    <t>72.86</t>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>2.97</t>
   </si>
   <si>
     <t>3.71</t>
   </si>
   <si>
-    <t>3.43</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
     <t>3.76</t>
   </si>
   <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>4.32</t>
+  </si>
+  <si>
     <t>2.34</t>
   </si>
   <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>2.97</t>
-  </si>
-  <si>
-    <t>4.36</t>
-  </si>
-  <si>
-    <t>4.32</t>
+    <t>2.7757</t>
+  </si>
+  <si>
+    <t>1.7946</t>
+  </si>
+  <si>
+    <t>1.7740</t>
+  </si>
+  <si>
+    <t>0.8818</t>
+  </si>
+  <si>
+    <t>0.8040</t>
+  </si>
+  <si>
+    <t>0.1775</t>
+  </si>
+  <si>
+    <t>0.0798</t>
+  </si>
+  <si>
+    <t>0.0613</t>
+  </si>
+  <si>
+    <t>0.0147</t>
+  </si>
+  <si>
+    <t>0.0136</t>
+  </si>
+  <si>
+    <t>0.0013</t>
   </si>
 </sst>
 </file>
@@ -509,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,224 +603,296 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3539</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5965</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5951</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.95</v>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>3.02</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="4">
@@ -1444,13 +1577,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>8.380000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.55</v>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.95</v>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>3.02</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1764,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.380000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.1</v>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.55</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1881,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>5.95</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1897,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>3.02</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1913,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.380000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,471 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009341</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达均衡成长股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>103.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7757</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110029</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达科讯混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>41.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7946</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>110013</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达科翔混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>51.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7740</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>110001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达平稳增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>29.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8818</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001018</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8040</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006533</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达科融混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1775</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004683</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>建信高端医疗股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0798</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006881</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝大健康混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>69.74</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0613</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008884</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博远博锐混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>72.86</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>450007</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国富成长动力混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.68</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>72.86</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.380000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -951,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -981,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>110029</t>
+          <t>009341</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科讯混合</t>
+          <t>易方达均衡成长股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.33</t>
+          <t>69.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5161</t>
+          <t>1.6660</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1019,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110013</t>
+          <t>005281</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科翔混合</t>
+          <t>中科沃土转型升级灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.03</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>38.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5054</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1113,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009341</t>
+          <t>110029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达均衡成长股票</t>
+          <t>易方达科讯混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>36.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.89</t>
+          <t>91.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0260</t>
+          <t>1.0755</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1151,36 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110013</t>
+          <t>004194</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科翔混合</t>
+          <t>招商中证1000指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>55.74</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.88</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3656</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1189,188 +847,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110029</t>
+          <t>004195</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达科讯混合</t>
+          <t>招商中证1000指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.31</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.08</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3539</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001018</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>31.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5965</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>110001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达平稳增长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>57.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5951</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008884</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博远博锐混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.85</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>78.85</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1516,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1537,7 +1043,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1567,36 +1073,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>110029</t>
+          <t>009341</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科讯混合</t>
+          <t>易方达均衡成长股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.09</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.34</t>
+          <t>87.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0755</t>
+          <t>2.0260</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1605,36 +1111,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004194</t>
+          <t>110013</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强A</t>
+          <t>易方达科翔混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>55.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>84.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0183</t>
+          <t>1.3656</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1643,36 +1149,188 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004195</t>
+          <t>110029</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强C</t>
+          <t>易方达科讯混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>42.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>85.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>1.3539</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5965</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5951</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1365,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1737,36 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009341</t>
+          <t>110029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达均衡成长股票</t>
+          <t>易方达科讯混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.13</t>
+          <t>44.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6660</t>
+          <t>1.5161</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1775,36 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005281</t>
+          <t>110013</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中科沃土转型升级灵活配置混合</t>
+          <t>易方达科翔混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>51.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38.48</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>1.5054</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1818,128 +1476,470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7757</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7740</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8.380000000000001</v>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.1</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.55</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>5.95</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>3.02</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.380000000000001</v>
       </c>
     </row>
@@ -583,6 +600,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>57.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -714,7 +825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -884,7 +995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1016,7 +1127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1338,7 +1449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1470,7 +1581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/000403-派林生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.1</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3.55</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5.95</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>3.02</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.380000000000001</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013554</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013555</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011433</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加聚优一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011434</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加聚优一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -693,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -995,7 +1448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1127,7 +1580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1449,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1581,7 +2034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
